--- a/docs/ScientificApplication/StealthCup_Timeline.xlsx
+++ b/docs/ScientificApplication/StealthCup_Timeline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manuel/Documents/projects/_dis-dev/StealthCup/docs/ScientificApplication/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manuel/Documents/projects/_dis-dev/StealthCup2025/docs/ScientificApplication/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBE1D15-ED4D-9849-86FB-87879CAEE507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1D7AB9-CF79-1141-A1C6-F1BE590F4937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17560" yWindow="2300" windowWidth="40380" windowHeight="24360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20320" yWindow="3240" windowWidth="31260" windowHeight="24460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Events" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="146">
   <si>
     <t>microwoft_secuwurty</t>
   </si>
@@ -431,6 +431,51 @@
   </si>
   <si>
     <t>Start suricata</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>./team4/run2/team_04_m1kulov3rz_17-32.md</t>
+  </si>
+  <si>
+    <t>./team4/run1/team_04_m1kulov3rz_13-07.md</t>
+  </si>
+  <si>
+    <t>./team12/run2/team_12_lag_all-time.md</t>
+  </si>
+  <si>
+    <t>./team3/run3/team_03_shaheen_17-19.md</t>
+  </si>
+  <si>
+    <t>./team7/run2/team_07_undercover_16-21.md</t>
+  </si>
+  <si>
+    <t>./team7/run3/team_07_undercover_17-12.md</t>
+  </si>
+  <si>
+    <t>./team9/run2/team_09_a1d_15-51.md</t>
+  </si>
+  <si>
+    <t>./team9/run1/team_09_a1d_11-57.md</t>
+  </si>
+  <si>
+    <t>./team10/run1/team_10_dragonfly_12-53.md</t>
+  </si>
+  <si>
+    <t>./team10/run1/team_10_dragonfly_17-29.md</t>
+  </si>
+  <si>
+    <t>./team1/run2/team_01_microwoft_secuwurty_16-35.md</t>
+  </si>
+  <si>
+    <t>manual validation via discord</t>
+  </si>
+  <si>
+    <t>2025-03-28T15:25:00</t>
   </si>
 </sst>
 </file>
@@ -715,37 +760,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="21" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="21" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="19" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="20" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="19" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -780,18 +818,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
@@ -806,10 +832,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -819,6 +842,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1111,8 +1149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378BE20E-18C1-3F48-ABA4-55FA8CEC36DC}">
   <dimension ref="A1:AA41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AA15" sqref="A1:AA15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1146,126 +1184,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="47"/>
-      <c r="B1" s="48"/>
-      <c r="C1" s="30" t="s">
+      <c r="A1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="33" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="33" t="s">
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="33" t="s">
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="46"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="45"/>
     </row>
     <row r="2" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="34" t="s">
+      <c r="A2" s="41"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="J2" s="37" t="s">
+      <c r="J2" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="K2" s="35" t="s">
+      <c r="K2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="35" t="s">
+      <c r="L2" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="35" t="s">
+      <c r="M2" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="35" t="s">
+      <c r="N2" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="36" t="s">
+      <c r="O2" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="P2" s="37" t="s">
+      <c r="P2" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="Q2" s="35" t="s">
+      <c r="Q2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="35" t="s">
+      <c r="R2" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="35" t="s">
+      <c r="S2" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="35" t="s">
+      <c r="T2" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="36" t="s">
+      <c r="U2" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="V2" s="37" t="s">
+      <c r="V2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="W2" s="35" t="s">
+      <c r="W2" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="X2" s="35" t="s">
+      <c r="X2" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Y2" s="35" t="s">
+      <c r="Y2" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="Z2" s="35" t="s">
+      <c r="Z2" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="AA2" s="38" t="s">
+      <c r="AA2" s="31" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" s="40">
+      <c r="A3" s="33">
         <v>1</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="34" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="5">
@@ -1279,31 +1317,33 @@
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="12">
+      <c r="H3" s="6">
         <v>0.60277777777777775</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="13">
         <v>0.60332175925925924</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="12">
         <v>0.61440972222222223</v>
       </c>
-      <c r="K3" s="7"/>
+      <c r="K3" s="6">
+        <v>0.64236111111111116</v>
+      </c>
       <c r="L3" s="7"/>
       <c r="M3" s="6">
         <v>0.64930555555555558</v>
       </c>
       <c r="N3" s="7"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="23"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="20"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="24">
+      <c r="U3" s="14"/>
+      <c r="V3" s="21">
         <f>COUNT(E3,K3,Q3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W3" s="4">
         <f>COUNT(F3,L3,R3)</f>
@@ -1321,16 +1361,16 @@
         <f t="shared" ref="Z3:Z14" si="0">COUNT(G3,M3,S3)</f>
         <v>1</v>
       </c>
-      <c r="AA3" s="13">
+      <c r="AA3" s="11">
         <f>X3+1</f>
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="42">
+      <c r="A4" s="35">
         <v>2</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="5">
@@ -1349,10 +1389,10 @@
       <c r="H4" s="6">
         <v>0.59097222222222223</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="13">
         <v>0.59103009259259254</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="12">
         <v>0.61234953703703698</v>
       </c>
       <c r="K4" s="6">
@@ -1365,14 +1405,14 @@
         <v>0.66319444444444442</v>
       </c>
       <c r="N4" s="7"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="23"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="20"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="24">
+      <c r="U4" s="14"/>
+      <c r="V4" s="21">
         <f t="shared" ref="V4:V14" si="1">COUNT(E4,K4,Q4)</f>
         <v>2</v>
       </c>
@@ -1392,16 +1432,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AA4" s="13">
+      <c r="AA4" s="11">
         <f t="shared" ref="AA4:AA14" si="5">X4+1</f>
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" s="42">
+      <c r="A5" s="35">
         <v>3</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="36" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="5">
@@ -1418,10 +1458,10 @@
       <c r="H5" s="6">
         <v>0.53125</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="13">
         <v>0.54123842592592597</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="12">
         <v>0.54766203703703709</v>
       </c>
       <c r="K5" s="8">
@@ -1432,10 +1472,10 @@
       <c r="N5" s="6">
         <v>0.64444444444444449</v>
       </c>
-      <c r="O5" s="16">
+      <c r="O5" s="13">
         <v>0.64476851851851846</v>
       </c>
-      <c r="P5" s="14">
+      <c r="P5" s="12">
         <v>0.6534375</v>
       </c>
       <c r="Q5" s="6">
@@ -1446,8 +1486,8 @@
         <v>0.67986111111111114</v>
       </c>
       <c r="T5" s="7"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="24">
+      <c r="U5" s="14"/>
+      <c r="V5" s="21">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -1467,16 +1507,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AA5" s="13">
+      <c r="AA5" s="11">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6" s="42">
+      <c r="A6" s="35">
         <v>4</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="36" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="5">
@@ -1495,10 +1535,10 @@
       <c r="H6" s="6">
         <v>0.60902777777777772</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="13">
         <v>0.60965277777777782</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="12">
         <v>0.63116898148148148</v>
       </c>
       <c r="K6" s="6">
@@ -1509,14 +1549,14 @@
         <v>0.68888888888888888</v>
       </c>
       <c r="N6" s="7"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="23"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="20"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="24">
+      <c r="U6" s="14"/>
+      <c r="V6" s="21">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -1536,16 +1576,16 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AA6" s="13">
+      <c r="AA6" s="11">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A7" s="42">
+      <c r="A7" s="35">
         <v>5</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="36" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="5">
@@ -1555,31 +1595,29 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="E7" s="7"/>
-      <c r="F7" s="6">
-        <v>0.67083333333333328</v>
-      </c>
+      <c r="F7" s="6"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="23"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="20"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="23"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="20"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="24">
+      <c r="U7" s="14"/>
+      <c r="V7" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W7" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" s="4">
         <f t="shared" si="3"/>
@@ -1593,16 +1631,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA7" s="13">
+      <c r="AA7" s="11">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A8" s="42">
+      <c r="A8" s="35">
         <v>6</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="36" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="5">
@@ -1617,10 +1655,10 @@
       <c r="H8" s="6">
         <v>0.59444444444444444</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="13">
         <v>0.59506944444444443</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="12">
         <v>0.61248842592592589</v>
       </c>
       <c r="K8" s="6">
@@ -1631,14 +1669,14 @@
         <v>0.65138888888888891</v>
       </c>
       <c r="N8" s="7"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="23"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="20"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="24">
+      <c r="U8" s="14"/>
+      <c r="V8" s="21">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1658,16 +1696,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AA8" s="13">
+      <c r="AA8" s="11">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A9" s="42">
+      <c r="A9" s="35">
         <v>7</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="36" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="5">
@@ -1684,10 +1722,10 @@
       <c r="H9" s="6">
         <v>0.59166666666666667</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="13">
         <v>0.59214120370370371</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="12">
         <v>0.61236111111111113</v>
       </c>
       <c r="K9" s="6">
@@ -1700,10 +1738,10 @@
       <c r="N9" s="6">
         <v>0.64166666666666672</v>
       </c>
-      <c r="O9" s="16">
+      <c r="O9" s="13">
         <v>0.6419907407407407</v>
       </c>
-      <c r="P9" s="14">
+      <c r="P9" s="12">
         <v>0.65342592592592597</v>
       </c>
       <c r="Q9" s="6">
@@ -1714,8 +1752,8 @@
         <v>0.67638888888888893</v>
       </c>
       <c r="T9" s="7"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="24">
+      <c r="U9" s="14"/>
+      <c r="V9" s="21">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -1735,16 +1773,16 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AA9" s="13">
+      <c r="AA9" s="11">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A10" s="42">
+      <c r="A10" s="35">
         <v>8</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="36" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="5">
@@ -1759,10 +1797,10 @@
       <c r="H10" s="6">
         <v>0.57638888888888884</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="13">
         <v>0.57694444444444448</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="12">
         <v>0.5901967592592593</v>
       </c>
       <c r="K10" s="7"/>
@@ -1771,10 +1809,10 @@
       <c r="N10" s="6">
         <v>0.62361111111111112</v>
       </c>
-      <c r="O10" s="16">
+      <c r="O10" s="13">
         <v>0.62369212962962961</v>
       </c>
-      <c r="P10" s="23" t="s">
+      <c r="P10" s="20" t="s">
         <v>99</v>
       </c>
       <c r="Q10" s="6">
@@ -1785,8 +1823,8 @@
         <v>0.68125000000000002</v>
       </c>
       <c r="T10" s="7"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="24">
+      <c r="U10" s="14"/>
+      <c r="V10" s="21">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1806,16 +1844,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AA10" s="13">
+      <c r="AA10" s="11">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A11" s="42">
+      <c r="A11" s="35">
         <v>9</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="36" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="5">
@@ -1834,10 +1872,10 @@
       <c r="H11" s="6">
         <v>0.57638888888888884</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="13">
         <v>0.57672453703703708</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="12">
         <v>0.5879050925925926</v>
       </c>
       <c r="K11" s="6">
@@ -1848,14 +1886,14 @@
         <v>0.61875000000000002</v>
       </c>
       <c r="N11" s="7"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="23"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="20"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="24">
+      <c r="U11" s="14"/>
+      <c r="V11" s="21">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -1875,16 +1913,16 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AA11" s="13">
+      <c r="AA11" s="11">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A12" s="42">
+      <c r="A12" s="35">
         <v>10</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="5">
@@ -1901,20 +1939,20 @@
         <v>0.72847222222222219</v>
       </c>
       <c r="H12" s="4"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="24"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="21"/>
       <c r="K12" s="4"/>
       <c r="L12" s="9"/>
       <c r="M12" s="4"/>
       <c r="N12" s="7"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="23"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="20"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="24">
+      <c r="U12" s="14"/>
+      <c r="V12" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1934,16 +1972,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AA12" s="13">
+      <c r="AA12" s="11">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A13" s="42">
+      <c r="A13" s="35">
         <v>11</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="36" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="5">
@@ -1956,20 +1994,20 @@
       <c r="F13" s="7"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="23"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="20"/>
       <c r="K13" s="7"/>
       <c r="L13" s="10"/>
       <c r="M13" s="6"/>
       <c r="N13" s="7"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="23"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="20"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="24">
+      <c r="U13" s="14"/>
+      <c r="V13" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1989,50 +2027,50 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA13" s="13">
+      <c r="AA13" s="11">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="44">
+      <c r="A14" s="37">
         <v>12</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="39">
+      <c r="C14" s="32">
         <v>0.28753472222222221</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="17">
         <v>0.35416666666666669</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="20" t="s">
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="17">
         <v>0.62291666666666667</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="19">
         <v>0.6229513888888889</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="16">
         <v>0.63133101851851847</v>
       </c>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="24">
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2052,54 +2090,33 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA14" s="13">
+      <c r="AA14" s="11">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="27">
+      <c r="V15" s="24">
         <f t="shared" ref="V15:Z15" si="6">SUM(V3:V14)</f>
-        <v>15</v>
-      </c>
-      <c r="W15" s="28">
+        <v>16</v>
+      </c>
+      <c r="W15" s="25">
         <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="X15" s="28">
+        <v>3</v>
+      </c>
+      <c r="X15" s="25">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="Y15" s="28">
+      <c r="Y15" s="25">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="Z15" s="28">
+      <c r="Z15" s="25">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="AA15" s="29">
+      <c r="AA15" s="26">
         <f>SUM(AA3:AA14)</f>
         <v>24</v>
       </c>
@@ -2148,6 +2165,11 @@
     <mergeCell ref="P1:U1"/>
     <mergeCell ref="C1:I1"/>
   </mergeCells>
+  <conditionalFormatting sqref="D3:U14">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(D3))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="V3:X14 Z3:Z14">
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -2172,21 +2194,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:U14">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(D3))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12B2AA47-AE15-214C-9B2C-8E4ADE4AC19E}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2215,6 +2232,9 @@
       <c r="B3" t="s">
         <v>28</v>
       </c>
+      <c r="C3" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -2223,6 +2243,9 @@
       <c r="B4" t="s">
         <v>84</v>
       </c>
+      <c r="C4" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -2231,6 +2254,9 @@
       <c r="B5" t="s">
         <v>36</v>
       </c>
+      <c r="C5" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -2239,6 +2265,9 @@
       <c r="B6" t="s">
         <v>46</v>
       </c>
+      <c r="C6" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -2247,6 +2276,9 @@
       <c r="B7" t="s">
         <v>46</v>
       </c>
+      <c r="C7" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -2255,6 +2287,9 @@
       <c r="B8" t="s">
         <v>56</v>
       </c>
+      <c r="C8" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -2263,6 +2298,9 @@
       <c r="B9" t="s">
         <v>61</v>
       </c>
+      <c r="C9" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -2271,6 +2309,9 @@
       <c r="B10" t="s">
         <v>64</v>
       </c>
+      <c r="C10" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -2279,6 +2320,9 @@
       <c r="B11" t="s">
         <v>64</v>
       </c>
+      <c r="C11" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -2287,6 +2331,9 @@
       <c r="B12" t="s">
         <v>73</v>
       </c>
+      <c r="C12" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -2295,6 +2342,9 @@
       <c r="B13" t="s">
         <v>73</v>
       </c>
+      <c r="C13" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -2303,6 +2353,9 @@
       <c r="B14" t="s">
         <v>76</v>
       </c>
+      <c r="C14" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
@@ -2312,7 +2365,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>23</v>
       </c>
@@ -2326,7 +2379,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -2339,8 +2392,11 @@
       <c r="D18" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -2353,8 +2409,11 @@
       <c r="D19" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -2367,8 +2426,11 @@
       <c r="D20" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -2381,8 +2443,11 @@
       <c r="D21" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -2395,8 +2460,11 @@
       <c r="D22" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -2409,8 +2477,11 @@
       <c r="D23" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -2423,8 +2494,11 @@
       <c r="D24" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -2437,8 +2511,11 @@
       <c r="D25" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -2451,8 +2528,11 @@
       <c r="D26" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -2465,8 +2545,11 @@
       <c r="D27" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -2479,8 +2562,11 @@
       <c r="D28" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -2493,8 +2579,11 @@
       <c r="D29" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -2507,8 +2596,11 @@
       <c r="D30" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -2521,8 +2613,11 @@
       <c r="D31" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -2535,8 +2630,11 @@
       <c r="D32" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>63</v>
       </c>
@@ -2549,8 +2647,11 @@
       <c r="D33" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -2563,8 +2664,11 @@
       <c r="D34" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -2577,8 +2681,11 @@
       <c r="D35" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>69</v>
       </c>
@@ -2591,8 +2698,11 @@
       <c r="D36" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>71</v>
       </c>
@@ -2605,8 +2715,11 @@
       <c r="D37" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>72</v>
       </c>
@@ -2619,8 +2732,11 @@
       <c r="D38" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>75</v>
       </c>
@@ -2633,8 +2749,11 @@
       <c r="D39" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>78</v>
       </c>
@@ -2647,8 +2766,11 @@
       <c r="D40" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -2661,9 +2783,82 @@
       <c r="D41" t="s">
         <v>81</v>
       </c>
+      <c r="E41" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>145</v>
+      </c>
+      <c r="B43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>143</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2671,7 +2866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E90B79-BCE3-E240-A565-C0E680CEA961}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18:B31"/>
     </sheetView>
   </sheetViews>

--- a/docs/ScientificApplication/StealthCup_Timeline.xlsx
+++ b/docs/ScientificApplication/StealthCup_Timeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manuel/Documents/projects/_dis-dev/StealthCup2025/docs/ScientificApplication/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1D7AB9-CF79-1141-A1C6-F1BE590F4937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B622A27-5983-0044-933E-3C522D1C5D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20320" yWindow="3240" windowWidth="31260" windowHeight="24460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1147,10 +1147,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378BE20E-18C1-3F48-ABA4-55FA8CEC36DC}">
-  <dimension ref="A1:AA41"/>
+  <dimension ref="A1:AG41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1183,7 +1183,7 @@
     <col min="27" max="27" width="7.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="39"/>
       <c r="B1" s="40"/>
       <c r="C1" s="47" t="s">
@@ -1220,7 +1220,7 @@
       <c r="Z1" s="44"/>
       <c r="AA1" s="45"/>
     </row>
-    <row r="2" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="41"/>
       <c r="B2" s="42"/>
       <c r="C2" s="27" t="s">
@@ -1299,7 +1299,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="33">
         <v>1</v>
       </c>
@@ -1365,8 +1365,14 @@
         <f>X3+1</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" s="35">
         <v>2</v>
       </c>
@@ -1436,8 +1442,11 @@
         <f t="shared" ref="AA4:AA14" si="5">X4+1</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="35">
         <v>3</v>
       </c>
@@ -1511,8 +1520,11 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" s="35">
         <v>4</v>
       </c>
@@ -1580,8 +1592,11 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" s="35">
         <v>5</v>
       </c>
@@ -1635,8 +1650,11 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" s="35">
         <v>6</v>
       </c>
@@ -1700,8 +1718,11 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="35">
         <v>7</v>
       </c>
@@ -1777,8 +1798,11 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" s="35">
         <v>8</v>
       </c>
@@ -1848,8 +1872,11 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" s="35">
         <v>9</v>
       </c>
@@ -1917,8 +1944,11 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" s="35">
         <v>10</v>
       </c>
@@ -1976,8 +2006,11 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="35">
         <v>11</v>
       </c>
@@ -2032,7 +2065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37">
         <v>12</v>
       </c>
@@ -2095,7 +2128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="V15" s="24">
         <f t="shared" ref="V15:Z15" si="6">SUM(V3:V14)</f>
         <v>16</v>
@@ -2195,15 +2228,16 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12B2AA47-AE15-214C-9B2C-8E4ADE4AC19E}">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+      <selection activeCell="A47" sqref="A47:A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2799,61 +2833,6 @@
       </c>
       <c r="D43" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>143</v>
       </c>
     </row>
   </sheetData>
